--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Semester 7 (Data Science)\Pembelajaran Mesin (Machine Learning)\Praktikum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B78DE-3620-4DEE-888D-52A4B937391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889C323-992B-4808-AFAE-1EFD2C71541A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF405AD9-BD72-49DB-A00E-BEE17FCDB849}"/>
   </bookViews>
@@ -370,6 +370,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,9 +387,6 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,16 +689,16 @@
                   <c:v>44839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44841</c:v>
+                  <c:v>44859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44843</c:v>
+                  <c:v>44860</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44845</c:v>
+                  <c:v>44865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44847</c:v>
+                  <c:v>44867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,19 +774,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,7 +2716,7 @@
   <dimension ref="B1:AH37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2736,29 +2736,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="AA1" s="28" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
     </row>
     <row r="2" spans="2:34" s="19" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
@@ -2808,9 +2808,9 @@
       </c>
       <c r="F3" s="21">
         <f>F5-F4+1</f>
-        <v>11</v>
-      </c>
-      <c r="H3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C4" s="13">
         <f>COUNTIF(Table14[STATUS],B4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>9</v>
@@ -2829,7 +2829,7 @@
         <f>MIN(Table14[START])</f>
         <v>44839</v>
       </c>
-      <c r="H4" s="31"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
@@ -2837,16 +2837,16 @@
       </c>
       <c r="C5" s="13">
         <f>COUNTIF(Table14[STATUS],B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="17">
         <f>MAX(Table14[FINISH])</f>
-        <v>44849</v>
-      </c>
-      <c r="H5" s="32">
+        <v>44868</v>
+      </c>
+      <c r="H5" s="33">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="C6" s="13">
         <f>COUNTIF(Table14[STATUS],B6)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
-      <c r="H6" s="32"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H7" s="22">
@@ -2912,14 +2912,14 @@
         <v>44839</v>
       </c>
       <c r="G10" s="4">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="H10" s="27">
         <f>IF(Table14[[#This Row],[TASKS]]="","",Table14[[#This Row],[FINISH]]-Table14[[#This Row],[START]]+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="11" t="str">
         <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
@@ -2935,17 +2935,17 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>44841</v>
+        <v>44859</v>
       </c>
       <c r="G11" s="4">
-        <v>44843</v>
+        <v>44859</v>
       </c>
       <c r="H11" s="27">
         <f>IF(Table14[[#This Row],[TASKS]]="","",Table14[[#This Row],[FINISH]]-Table14[[#This Row],[START]]+1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="11" t="str">
         <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
@@ -2961,17 +2961,17 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <v>44843</v>
+        <v>44860</v>
       </c>
       <c r="G12" s="4">
-        <v>44845</v>
+        <v>44861</v>
       </c>
       <c r="H12" s="27">
         <f>IF(Table14[[#This Row],[TASKS]]="","",Table14[[#This Row],[FINISH]]-Table14[[#This Row],[START]]+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="11" t="str">
         <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
@@ -2987,14 +2987,14 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
-        <v>44845</v>
+        <v>44865</v>
       </c>
       <c r="G13" s="4">
-        <v>44847</v>
+        <v>44866</v>
       </c>
       <c r="H13" s="27">
         <f>IF(Table14[[#This Row],[TASKS]]="","",Table14[[#This Row],[FINISH]]-Table14[[#This Row],[START]]+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>1</v>
@@ -3013,14 +3013,14 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
-        <v>44847</v>
+        <v>44867</v>
       </c>
       <c r="G14" s="4">
-        <v>44849</v>
+        <v>44868</v>
       </c>
       <c r="H14" s="27">
         <f>IF(Table14[[#This Row],[TASKS]]="","",Table14[[#This Row],[FINISH]]-Table14[[#This Row],[START]]+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>1</v>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Semester 7 (Data Science)\Pembelajaran Mesin (Machine Learning)\Praktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Semester 7 (Data Science)\Pembelajaran Mesin (Machine Learning)\Praktikum\KelompokML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889C323-992B-4808-AFAE-1EFD2C71541A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D3D89-32FE-48AD-BDD8-F50A6D5A0667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF405AD9-BD72-49DB-A00E-BEE17FCDB849}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Pembelajaran Mesin</t>
   </si>
   <si>
-    <t>Deteksi Polusi Mikroplastik Melalui Deep Learning Dengan Metode ResNet50</t>
-  </si>
-  <si>
     <t>Dataset management</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Aria</t>
+  </si>
+  <si>
+    <t>Deteksi Polusi Mikroplastik Melalui Deep Learning Dengan CNN HyperTuning</t>
   </si>
 </sst>
 </file>
@@ -783,10 +783,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,10 +1136,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44999999999999996</c:v>
+                  <c:v>1.0000000000000009E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,7 +2716,7 @@
   <dimension ref="B1:AH37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2740,7 +2740,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="F3" s="21">
         <f>F5-F4+1</f>
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>4</v>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C4" s="13">
         <f>COUNTIF(Table14[STATUS],B4)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>9</v>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="C5" s="13">
         <f>COUNTIF(Table14[STATUS],B5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="17">
         <f>MAX(Table14[FINISH])</f>
-        <v>44868</v>
+        <v>44909</v>
       </c>
       <c r="H5" s="33">
-        <v>0.55000000000000004</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C6" s="13">
         <f>COUNTIF(Table14[STATUS],B6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="18"/>
@@ -2865,7 +2865,7 @@
     <row r="7" spans="2:34" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H7" s="22">
         <f>1-H5</f>
-        <v>0.44999999999999996</v>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2899,13 +2899,13 @@
     </row>
     <row r="10" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -2928,10 +2928,10 @@
     </row>
     <row r="11" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -2954,10 +2954,10 @@
     </row>
     <row r="12" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -2971,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="11" t="str">
         <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
@@ -2980,24 +2980,24 @@
     </row>
     <row r="13" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
         <v>44865</v>
       </c>
       <c r="G13" s="4">
-        <v>44866</v>
+        <v>44909</v>
       </c>
       <c r="H13" s="27">
         <f>IF(Table14[[#This Row],[TASKS]]="","",Table14[[#This Row],[FINISH]]-Table14[[#This Row],[START]]+1)</f>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11" t="str">
         <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
@@ -3006,24 +3006,24 @@
     </row>
     <row r="14" spans="2:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
         <v>44867</v>
       </c>
       <c r="G14" s="4">
-        <v>44868</v>
+        <v>44909</v>
       </c>
       <c r="H14" s="27">
         <f>IF(Table14[[#This Row],[TASKS]]="","",Table14[[#This Row],[FINISH]]-Table14[[#This Row],[START]]+1)</f>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11" t="str">
         <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
@@ -3112,10 +3112,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="27"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="5"/>
@@ -3124,10 +3121,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="27"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
@@ -3136,10 +3130,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="27"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
@@ -3148,10 +3139,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="27"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="5"/>
@@ -3160,10 +3148,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="27"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="5"/>
@@ -3172,10 +3157,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="27"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="5"/>
@@ -3184,10 +3166,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="27"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="5"/>
@@ -3196,10 +3175,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="27"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="5"/>
@@ -3208,10 +3184,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="27"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5"/>
@@ -3220,10 +3193,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="27"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="11">
-        <f>IFERROR(Table14[[#This Row],[DURATION]]-Table14[[#This Row],[STATUS]],"")</f>
-        <v>0</v>
-      </c>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
